--- a/biology/Botanique/Bosquet_de_la_Colonnade/Bosquet_de_la_Colonnade.xlsx
+++ b/biology/Botanique/Bosquet_de_la_Colonnade/Bosquet_de_la_Colonnade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bosquet de la Colonnade est un bosquet des jardins de Versailles.
@@ -514,7 +526,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bosquet de la Colonnade est délimité à l'ouest par l'allée d'Apollon et au sud par l'allée du Mail.
 À l'est se trouve le bassin du Miroir, et à son angle nord-est, le bassin de Saturne.
@@ -550,15 +564,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paysage &amp; Structure à l'Antique
-Le bosquet de la Colonnade est triangulaire, à l'intérieur se trouve un salon de verdure circulaire entouré d'une colonnade de marbre de près de 40 mètres de diamètres[1]. Il est accessible à ses trois points cardinaux par 4 allées.
+          <t>Paysage &amp; Structure à l'Antique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bosquet de la Colonnade est triangulaire, à l'intérieur se trouve un salon de verdure circulaire entouré d'une colonnade de marbre de près de 40 mètres de diamètres. Il est accessible à ses trois points cardinaux par 4 allées.
 L'espace est organisé en rotonde, à l'Antique. Son péristyle en double rangée de pilastres et colonnes ioniques en font un des bosquets ou la composition architecturale est la plus importante du Jardin de Versailles.
 La structure du péristyle est constituée de 32 colonnes de marbre reliées par des arcades. Chaque colonne est couronnée par un pot-à-feu. En arrière de chaque colonne se trouve un pilastre lui étant relié par un contrebutement. Le péristyle principal est achevé par des arcs en cintre courbés, ornés de bas-reliefs, un entablement en marbre blanc doté d'une légère corniche. Les claveaux des arcades sont également ornées de mascarons. 
-Marbres
-Le bosquet se distingue par la grande présence de marbres. Cette présence est due à la date des travaux d'aménagement (1683-1688) concordant à l'arrivée en masse à Versailles de diverses essences de marbres ainsi qu'à son maître d'œuvre, Jules Ardouin Mansart.
-Jeux d'eaux
-Au pieds du péristyle se trouvent aujourd'hui vingt-huit vasques sur piètement triangulaire. A l'origine il y en avait trente et une mais lors de l'ouverture de trois entrées supplémentaires en 1704, celles-ci furent déplacées pour deux au bosquet de la Salle des Marronniers et pour la trente et unième au bassin central du Jardin des Tuileries[2].
-Le détail des vasques est fait ainsi: « Trente grands bassins de marbre blanc, dont deux dans la Salle des maronniers et 28 dans la Colomnade. Le bord est orné de feuilles d’eau et de fleurons, et le dessous entouré de gaudrons qui naissent d’une coquille, ayant six pieds trois pouces de diamètre sur dix pouces et demi d’épaisseur; posez sur un pied, de deux pièces et de deux pieds six pouces de haut, orné par le haut d’un cordon de feuilles de laurier et, par le bas, d’oves entrelassées de fleurons, avec trois consolles en tiers point taillées d’architecture et d’une grande feuille d’eau »[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bosquet_de_la_Colonnade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bosquet_de_la_Colonnade</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Composition Architecturale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Marbres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bosquet se distingue par la grande présence de marbres. Cette présence est due à la date des travaux d'aménagement (1683-1688) concordant à l'arrivée en masse à Versailles de diverses essences de marbres ainsi qu'à son maître d'œuvre, Jules Ardouin Mansart.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bosquet_de_la_Colonnade</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bosquet_de_la_Colonnade</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Composition Architecturale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Jeux d'eaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au pieds du péristyle se trouvent aujourd'hui vingt-huit vasques sur piètement triangulaire. A l'origine il y en avait trente et une mais lors de l'ouverture de trois entrées supplémentaires en 1704, celles-ci furent déplacées pour deux au bosquet de la Salle des Marronniers et pour la trente et unième au bassin central du Jardin des Tuileries.
+Le détail des vasques est fait ainsi: « Trente grands bassins de marbre blanc, dont deux dans la Salle des maronniers et 28 dans la Colomnade. Le bord est orné de feuilles d’eau et de fleurons, et le dessous entouré de gaudrons qui naissent d’une coquille, ayant six pieds trois pouces de diamètre sur dix pouces et demi d’épaisseur; posez sur un pied, de deux pièces et de deux pieds six pouces de haut, orné par le haut d’un cordon de feuilles de laurier et, par le bas, d’oves entrelassées de fleurons, avec trois consolles en tiers point taillées d’architecture et d’une grande feuille d’eau ».
 			Quatre travées de la colonnade.
 			Une travée de la colonnade.
 			D'après François Girardon, Enlèvement de Proserpine par Pluton, au centre du bosquet.
@@ -567,65 +656,69 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Bosquet_de_la_Colonnade</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bosquet_de_la_Colonnade</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sculptures</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les écoinçons de l'arcade sont ornés de bas-reliefs représentant des enfants jouant de la musique ou à des jeux champêtres. Ils ont été sculptés par Coysevox, Le Hongre, Tuby, Mazière, Leconte, Granier et Vigier. Des têtes de nymphes, de naïades et de dieux figurent sur les claveaux des arcs.
-Au centre de la colonnade se trouve un moulage du groupe sculpté de François Girardon, l'Enlèvement de Proserpine par Pluton, depuis 1990. L'original est conservé depuis 1955 à l'Orangerie[2].
+Au centre de la colonnade se trouve un moulage du groupe sculpté de François Girardon, l'Enlèvement de Proserpine par Pluton, depuis 1990. L'original est conservé depuis 1955 à l'Orangerie.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bosquet_de_la_Colonnade</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bosquet_de_la_Colonnade</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bosquet de la Colonnade a été construit en 1685 par Jules Hardouin-Mansart à l'emplacement d'un bosquet plus ancien nommé bosquet des Sources, à l'instigation de Louis XIV, qui voulait une « colonnade de marbre avec de grosses fontaines[4] ».
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bosquet de la Colonnade a été construit en 1685 par Jules Hardouin-Mansart à l'emplacement d'un bosquet plus ancien nommé bosquet des Sources, à l'instigation de Louis XIV, qui voulait une « colonnade de marbre avec de grosses fontaines ».
 En 1704, 3 entrées supplémentaires sont percées, réduisant le nombre de fontaines.
 </t>
         </is>
